--- a/CashFlow/ADSK_cashflow.xlsx
+++ b/CashFlow/ADSK_cashflow.xlsx
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>428000000.0</v>
+        <v>129600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>389000000.0</v>
+        <v>45700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>311900000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>247400000.0</v>
+        <v>-72800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-10200000.0</v>
+        <v>-90800000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>28300000.0</v>
